--- a/resultados/vazao_transferencias/vazao_transferencia_rio_grande.xlsx
+++ b/resultados/vazao_transferencias/vazao_transferencia_rio_grande.xlsx
@@ -412,7 +412,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Vazão captada da ETA</t>
+          <t>Vazão captada da ETA (m³/s)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -422,7 +422,7 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Vazão de transferência</t>
+          <t>Vazão de transferência (m³/s)</t>
         </is>
       </c>
     </row>
@@ -10953,7 +10953,7 @@
     </row>
     <row r="184">
       <c r="A184" s="2">
-        <v>45717</v>
+        <v>45747</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
@@ -10962,12 +10962,12 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>77,44</t>
+          <t>70,83</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>2,24</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
@@ -10977,12 +10977,12 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25,4</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -10992,17 +10992,12 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
         <is>
-          <t>5,06</t>
-        </is>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>Q RP-RG</t>
+          <t>5,2</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
